--- a/Results/Table_a.xlsx
+++ b/Results/Table_a.xlsx
@@ -138,10 +138,10 @@
         <v>7.3690271E7</v>
       </c>
       <c r="D2" t="n">
-        <v>751105.752976268</v>
+        <v>751258.5067377688</v>
       </c>
       <c r="E2" t="n">
-        <v>132622.06313683404</v>
+        <v>132643.9025941133</v>
       </c>
       <c r="F2" t="n">
         <v>17.7</v>
@@ -158,10 +158,10 @@
         <v>1.3763183E7</v>
       </c>
       <c r="D3" t="n">
-        <v>141192.852486809</v>
+        <v>141224.85510650915</v>
       </c>
       <c r="E3" t="n">
-        <v>13845.407771141076</v>
+        <v>13848.317991206073</v>
       </c>
       <c r="F3" t="n">
         <v>9.8</v>
@@ -178,10 +178,10 @@
         <v>6994464.0</v>
       </c>
       <c r="D4" t="n">
-        <v>71003.68257725127</v>
+        <v>71016.18235385128</v>
       </c>
       <c r="E4" t="n">
-        <v>9283.031812764975</v>
+        <v>9284.533410347995</v>
       </c>
       <c r="F4" t="n">
         <v>13.1</v>
@@ -198,10 +198,10 @@
         <v>5.2932624E7</v>
       </c>
       <c r="D5" t="n">
-        <v>538909.2179122097</v>
+        <v>539017.4692774098</v>
       </c>
       <c r="E5" t="n">
-        <v>109493.62355292798</v>
+        <v>109511.0511925592</v>
       </c>
       <c r="F5" t="n">
         <v>20.3</v>
@@ -218,10 +218,10 @@
         <v>2614804.0</v>
       </c>
       <c r="D6" t="n">
-        <v>27572.182912934797</v>
+        <v>27578.037147134797</v>
       </c>
       <c r="E6" t="n">
-        <v>5739.31652469211</v>
+        <v>5740.358000462053</v>
       </c>
       <c r="F6" t="n">
         <v>20.8</v>
@@ -238,10 +238,10 @@
         <v>1.2770843E7</v>
       </c>
       <c r="D7" t="n">
-        <v>133194.94262044408</v>
+        <v>133224.93828604417</v>
       </c>
       <c r="E7" t="n">
-        <v>24802.710902105995</v>
+        <v>24807.243343738122</v>
       </c>
       <c r="F7" t="n">
         <v>18.6</v>
@@ -258,10 +258,10 @@
         <v>1.8573954E7</v>
       </c>
       <c r="D8" t="n">
-        <v>189469.17978440996</v>
+        <v>189511.85823830997</v>
       </c>
       <c r="E8" t="n">
-        <v>32346.252048300146</v>
+        <v>32352.087319831586</v>
       </c>
       <c r="F8" t="n">
         <v>17.1</v>
@@ -278,10 +278,10 @@
         <v>2.1953876E7</v>
       </c>
       <c r="D9" t="n">
-        <v>222724.87122328483</v>
+        <v>222768.88532188482</v>
       </c>
       <c r="E9" t="n">
-        <v>37589.731012978074</v>
+        <v>37595.732117752814</v>
       </c>
       <c r="F9" t="n">
         <v>16.9</v>
@@ -298,10 +298,10 @@
         <v>1.7763239E7</v>
       </c>
       <c r="D10" t="n">
-        <v>177998.64421510522</v>
+        <v>178028.82456520526</v>
       </c>
       <c r="E10" t="n">
-        <v>32116.5722393716</v>
+        <v>32120.997452340147</v>
       </c>
       <c r="F10" t="n">
         <v>18.0</v>
@@ -318,10 +318,10 @@
         <v>13555.0</v>
       </c>
       <c r="D11" t="n">
-        <v>145.93222009143653</v>
+        <v>145.96317919143652</v>
       </c>
       <c r="E11" t="n">
-        <v>27.480409386114303</v>
+        <v>27.484359988560563</v>
       </c>
       <c r="F11" t="n">
         <v>18.8</v>

--- a/Results/Table_a.xlsx
+++ b/Results/Table_a.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raed\Documents\R Projects\TTI-AsthmaIR\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447E1FD-C79B-4D27-ACC9-0C8A0D45E0AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="348" yWindow="3972" windowWidth="10548" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -62,11 +70,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -78,7 +85,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -93,21 +100,337 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -127,207 +450,208 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="e">
         <v>#N/A</v>
       </c>
       <c r="B2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C2" t="n">
-        <v>7.3690271E7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>751258.5067377688</v>
-      </c>
-      <c r="E2" t="n">
-        <v>132643.9025941133</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="1">
+        <v>73690271</v>
+      </c>
+      <c r="D2" s="1">
+        <v>754892.98513708881</v>
+      </c>
+      <c r="E2" s="1">
+        <v>132828.73762661038</v>
+      </c>
+      <c r="F2">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.3763183E7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>141224.85510650915</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13848.317991206073</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="1">
+        <v>13763183</v>
+      </c>
+      <c r="D3" s="1">
+        <v>142559.35349296677</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13951.401747330559</v>
+      </c>
+      <c r="F3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C4" t="n">
-        <v>6994464.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>71016.18235385128</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9284.533410347995</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="1">
+        <v>6994464</v>
+      </c>
+      <c r="D4" s="1">
+        <v>71248.97183725526</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9295.8637336234424</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.2932624E7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>539017.4692774098</v>
-      </c>
-      <c r="E5" t="n">
-        <v>109511.0511925592</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="C5" s="1">
+        <v>52932624</v>
+      </c>
+      <c r="D5" s="1">
+        <v>541084.6598068655</v>
+      </c>
+      <c r="E5" s="1">
+        <v>109581.47214565639</v>
+      </c>
+      <c r="F5">
         <v>20.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="e">
         <v>#N/A</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>2614804.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27578.037147134797</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5740.358000462053</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="C6" s="1">
+        <v>2614804</v>
+      </c>
+      <c r="D6" s="1">
+        <v>28039.031803541533</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5834.0514826449216</v>
+      </c>
+      <c r="F6">
         <v>20.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="e">
         <v>#N/A</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.2770843E7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>133224.93828604417</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24807.243343738122</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="1">
+        <v>12770843</v>
+      </c>
+      <c r="D7" s="1">
+        <v>134207.56925177248</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24905.501190896346</v>
+      </c>
+      <c r="F7">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="e">
         <v>#N/A</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.8573954E7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>189511.85823830997</v>
-      </c>
-      <c r="E8" t="n">
-        <v>32352.087319831586</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="1">
+        <v>18573954</v>
+      </c>
+      <c r="D8" s="1">
+        <v>190481.30786526375</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32369.069340874357</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="e">
         <v>#N/A</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.1953876E7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>222768.88532188482</v>
-      </c>
-      <c r="E9" t="n">
-        <v>37595.732117752814</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="1">
+        <v>21953876</v>
+      </c>
+      <c r="D9" s="1">
+        <v>223521.99651547629</v>
+      </c>
+      <c r="E9" s="1">
+        <v>37559.356664277228</v>
+      </c>
+      <c r="F9">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="e">
         <v>#N/A</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.7763239E7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>178028.82456520526</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32120.997452340147</v>
-      </c>
-      <c r="F10" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="1">
+        <v>17763239</v>
+      </c>
+      <c r="D10" s="1">
+        <v>178497.47097301373</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32133.228773388055</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
         <v>#N/A</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="n">
-        <v>13555.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>145.96317919143652</v>
-      </c>
-      <c r="E11" t="n">
-        <v>27.484359988560563</v>
-      </c>
-      <c r="F11" t="n">
-        <v>18.8</v>
+      <c r="C11" s="1">
+        <v>13555</v>
+      </c>
+      <c r="D11" s="1">
+        <v>145.60872802009752</v>
+      </c>
+      <c r="E11" s="1">
+        <v>27.530174529478874</v>
+      </c>
+      <c r="F11">
+        <v>18.899999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>